--- a/1. Base de dados/teste adf.xlsx
+++ b/1. Base de dados/teste adf.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nabil\Documents\Mestrado\Catolica\0. Dissertação\1. Base de dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05E77B7C-D38D-4B4A-9749-EF9313583819}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5065A266-0D34-4661-B291-4C2058EC8CFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="23">
   <si>
     <t>inad_cartao</t>
   </si>
@@ -86,57 +86,6 @@
   </si>
   <si>
     <t>Variavel</t>
-  </si>
-  <si>
-    <t>Descrição</t>
-  </si>
-  <si>
-    <t>PIB Mensal</t>
-  </si>
-  <si>
-    <t>IPCA Mensal</t>
-  </si>
-  <si>
-    <t>Selic Mensal</t>
-  </si>
-  <si>
-    <t>Saldo de crédito pessoa física mensal</t>
-  </si>
-  <si>
-    <t>Concessão de crédito pessoa física mensal</t>
-  </si>
-  <si>
-    <t>Cambio Real/Dolar</t>
-  </si>
-  <si>
-    <t>Taxa de desemprego</t>
-  </si>
-  <si>
-    <t>Dummie anos de crise</t>
-  </si>
-  <si>
-    <t>Saldo de crédito pessoa física mensal (Cartão)</t>
-  </si>
-  <si>
-    <t>Concessão de crédito pessoa física mensal (Cartão)</t>
-  </si>
-  <si>
-    <t>Proporção crédito em relação ao PIB Mensal</t>
-  </si>
-  <si>
-    <t>Proporção crédito em relação ao PIB Mensal (Cartão)</t>
-  </si>
-  <si>
-    <t>Fonte</t>
-  </si>
-  <si>
-    <t>Banco Central</t>
-  </si>
-  <si>
-    <t>IBGE</t>
-  </si>
-  <si>
-    <t>-</t>
   </si>
   <si>
     <t>Correlação</t>
@@ -856,251 +805,171 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C310136-D94A-481A-BB33-18E2367C025B}">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection sqref="A1:C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="48.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.140625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D1" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="E1" s="8"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B1" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="8"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B2" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D3" s="1">
+      <c r="B3" s="1">
         <v>-0.18099999999999999</v>
       </c>
-      <c r="E3" s="1">
+      <c r="C3" s="1">
         <v>-0.218</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D4" s="1">
+      <c r="B4" s="1">
         <v>1E-3</v>
       </c>
-      <c r="E4" s="1">
+      <c r="C4" s="1">
         <v>-8.7999999999999995E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" s="1">
+      <c r="B5" s="1">
         <v>-0.13800000000000001</v>
       </c>
-      <c r="E5" s="1">
+      <c r="C5" s="1">
         <v>-8.1000000000000003E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" s="1">
+      <c r="B6" s="1">
         <v>6.3E-2</v>
       </c>
-      <c r="E6" s="1">
+      <c r="C6" s="1">
         <v>-0.125</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7" s="1">
+      <c r="B7" s="1">
         <v>-0.158</v>
       </c>
-      <c r="E7" s="1">
+      <c r="C7" s="1">
         <v>-0.34899999999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8" s="1">
+      <c r="B8" s="1">
         <v>8.5999999999999993E-2</v>
       </c>
-      <c r="E8" s="1">
+      <c r="C8" s="1">
         <v>0.19</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D9" s="1">
+      <c r="B9" s="1">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="E9" s="1">
+      <c r="C9" s="1">
         <v>-1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D10" s="1">
+      <c r="B10" s="1">
         <v>2.8000000000000001E-2</v>
       </c>
-      <c r="E10" s="1">
+      <c r="C10" s="1">
         <v>-0.01</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" s="1">
+      <c r="B11" s="1">
         <v>-0.114</v>
       </c>
-      <c r="E11" s="1">
+      <c r="C11" s="1">
         <v>-0.31900000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D12" s="1">
+      <c r="B12" s="1">
         <v>-0.152</v>
       </c>
-      <c r="E12" s="1">
+      <c r="C12" s="1">
         <v>-0.37</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D13" s="1">
+      <c r="B13" s="1">
         <v>0.19500000000000001</v>
       </c>
-      <c r="E13" s="1">
+      <c r="C13" s="1">
         <v>0.192</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D14" s="1">
+      <c r="B14" s="1">
         <v>9.8000000000000004E-2</v>
       </c>
-      <c r="E14" s="1">
+      <c r="C14" s="1">
         <v>-8.0000000000000002E-3</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="B1:C1"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/1. Base de dados/teste adf.xlsx
+++ b/1. Base de dados/teste adf.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nabil\Documents\Mestrado\Catolica\0. Dissertação\1. Base de dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5065A266-0D34-4661-B291-4C2058EC8CFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02CFA1A7-7A7A-4BF9-BDD3-A2829BC2D54B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Teste ADF e KPSS" sheetId="1" r:id="rId1"/>
     <sheet name="Teste Correlação" sheetId="2" r:id="rId2"/>
+    <sheet name="Planilha1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="39">
   <si>
     <t>inad_cartao</t>
   </si>
@@ -95,6 +96,54 @@
   </si>
   <si>
     <t>Taxa inadimplência Cartão</t>
+  </si>
+  <si>
+    <t>Descrição</t>
+  </si>
+  <si>
+    <t>Fonte</t>
+  </si>
+  <si>
+    <t>PIB Mensal</t>
+  </si>
+  <si>
+    <t>SELIC Mensal</t>
+  </si>
+  <si>
+    <t>IPCA Mensal</t>
+  </si>
+  <si>
+    <t>Saldo de crédito pessoa física</t>
+  </si>
+  <si>
+    <t>Concessões de crédito pessoa física</t>
+  </si>
+  <si>
+    <t>Câmbio Real/Dolar</t>
+  </si>
+  <si>
+    <t>Taxa de desemprego</t>
+  </si>
+  <si>
+    <t>Dummie de crise financeiro ("2007-01-01","2008-01-01","2015-01-01","2016-01-01","2020-01-01")</t>
+  </si>
+  <si>
+    <t>Saldo de crédito cartão pessoa física</t>
+  </si>
+  <si>
+    <t>Concesões de crédito cartão pessoa física</t>
+  </si>
+  <si>
+    <t>Proporção do saldo de crédito em relação ao PIB Mensal</t>
+  </si>
+  <si>
+    <t>Proporção do saldo de crédito cartão em relação ao PIB Mensal</t>
+  </si>
+  <si>
+    <t>Banco Central</t>
+  </si>
+  <si>
+    <t>IBGE</t>
   </si>
 </sst>
 </file>
@@ -169,7 +218,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -191,6 +240,7 @@
     <xf numFmtId="43" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -474,8 +524,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -807,8 +857,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C310136-D94A-481A-BB33-18E2367C025B}">
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -819,19 +869,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="8"/>
+      <c r="C1" s="10"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="8" t="s">
         <v>22</v>
       </c>
     </row>
@@ -973,4 +1023,163 @@
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8118A96F-E1F8-4ADE-8A9E-6CD8DD2161F7}">
+  <dimension ref="A1:C13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="87.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>